--- a/tabel_hasil_percobaan.xlsx
+++ b/tabel_hasil_percobaan.xlsx
@@ -24,39 +24,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
-  <si>
-    <t>Lexical</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>SVM</t>
   </si>
   <si>
-    <t>Naïve Bayes</t>
-  </si>
-  <si>
-    <t>Stemming</t>
-  </si>
-  <si>
-    <t>Lemmatization</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>v</t>
+    <t>Rule based</t>
+  </si>
+  <si>
+    <t>Decision tree</t>
+  </si>
+  <si>
+    <t>Naïve bayes</t>
+  </si>
+  <si>
+    <t>Random forest</t>
+  </si>
+  <si>
+    <t>Neural network</t>
+  </si>
+  <si>
+    <t>Vector space model</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>TEST DATA = TEST DATA</t>
+  </si>
+  <si>
+    <t>TEST DATA = TRAINING DATA</t>
+  </si>
+  <si>
+    <t>Combinations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -71,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,12 +114,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,135 +430,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.77734375" style="1" customWidth="1"/>
+    <col min="4" max="11" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.878</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.878</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.997</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.998</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>98.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/tabel_hasil_percobaan.xlsx
+++ b/tabel_hasil_percobaan.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,9 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t>SVM</t>
+  </si>
+  <si>
+    <t>Stemming</t>
+  </si>
+  <si>
+    <t>Lemmatization</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>Rule based</t>
@@ -42,9 +52,6 @@
   </si>
   <si>
     <t>Neural network</t>
-  </si>
-  <si>
-    <t>Vector space model</t>
   </si>
   <si>
     <t>KNN</t>
@@ -74,15 +81,51 @@
     <t>TEST DATA = TRAINING DATA</t>
   </si>
   <si>
-    <t>Combinations</t>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>ALL
+SCENA
+RIOS
+TIME</t>
+  </si>
+  <si>
+    <t>SKENARIO</t>
+  </si>
+  <si>
+    <t>Token Nol</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>Stopwords</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -97,13 +140,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -133,22 +189,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -165,6 +236,2223 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Akurasi </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Menggunakan Data Tes Untuk</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiap</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Algoritma Untuk 5 Jenis Skenario</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Rule based</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Decision tree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neural network</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.90500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Rule based</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Decision tree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neural network</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Rule based</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Decision tree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neural network</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Rule based</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Decision tree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neural network</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Rule based</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Decision tree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neural network</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1636792256"/>
+        <c:axId val="1636792800"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1636792256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1636792800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1636792800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1636792256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Waktu Training </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Rata Rata (detik)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Rule based</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Decision tree</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Naïve bayes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Random forest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Neural network</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>KNN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.2944000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.601399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8254000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.3024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>166.28320000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131.23219999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>373.983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1651743728"/>
+        <c:axId val="1651736656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1651743728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1651736656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1651736656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1651743728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>197224</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>98613</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>192742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>340658</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,233 +2718,672 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="8.77734375" style="1" customWidth="1"/>
-    <col min="4" max="11" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="G2" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>13</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.77</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.878</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.878</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G3" s="9">
+        <v>21.472000000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <f>G3/5</f>
+        <v>4.2944000000000004</v>
+      </c>
+      <c r="I3" s="1">
+        <f>VAR(B3:F3)</f>
+        <v>2.6959999999999996E-3</v>
+      </c>
+      <c r="J3" s="1">
+        <f>F3/B3</f>
+        <v>1.1753246753246753</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0.77</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.878</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.878</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.997</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0.998</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.998</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.998</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0.998</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="G4" s="9">
+        <v>228.00700000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" ref="H4:H10" si="0">G4/5</f>
+        <v>45.601399999999998</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I10" si="1">VAR(B4:F4)</f>
+        <v>1.6200000000000028E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.86</v>
+      </c>
+      <c r="G5" s="9">
+        <v>39.127000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8254000000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.3000000000000131E-6</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="G6" s="9">
+        <v>56.512</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>11.3024</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7000000000000106E-6</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="B7" s="9">
+        <v>0.871</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.871</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.871</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.871</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.871</v>
+      </c>
+      <c r="G7" s="9">
+        <v>831.41600000000005</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>166.28320000000002</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5407439555097887E-32</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G8" s="9">
+        <v>656.16099999999994</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>131.23219999999998</v>
+      </c>
+      <c r="I8" s="1">
+        <f>VAR(B8:F8)</f>
+        <v>3.7000000000000065E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1869.915</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>373.983</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000068E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G10" s="11">
+        <v>15.121</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>3.0242</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7000000000000172E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.997</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="G14" s="9">
+        <v>21.472000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="B15" s="9">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="G15" s="9">
+        <v>228.00700000000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="B16" s="10">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="G16" s="9">
+        <v>39.127000000000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="B17" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.997</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.997</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="G17" s="9">
+        <v>56.512</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="G18" s="9">
+        <v>831.41600000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
+        <v>656.16099999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1869.915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.998</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.999</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G21" s="11">
+        <v>15.121</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="4.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>